--- a/ProjectSchematic/BOM.xlsx
+++ b/ProjectSchematic/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robyr\Documents\GitHub\CPSA_project_infineon\ProjectSchematic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFAC8D5-98E1-4D12-B414-F7AE1E499108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D13452D-CC5E-4A0A-8AD6-4718381E6B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6315" yWindow="0" windowWidth="21600" windowHeight="14730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>U1</t>
   </si>
@@ -96,12 +96,6 @@
     <t>220p</t>
   </si>
   <si>
-    <t>10u</t>
-  </si>
-  <si>
-    <t>20u</t>
-  </si>
-  <si>
     <t>220n</t>
   </si>
   <si>
@@ -126,18 +120,12 @@
     <t>COST</t>
   </si>
   <si>
-    <t>LINEAR REGULATOR VR1 LT</t>
-  </si>
-  <si>
     <t>SWITCHING REGULATOR EFF_TYP=90%</t>
   </si>
   <si>
     <t>CAPACITOR</t>
   </si>
   <si>
-    <t>CAPACITOR &gt;5V</t>
-  </si>
-  <si>
     <t>INDUCTOR &gt;300mA</t>
   </si>
   <si>
@@ -145,6 +133,30 @@
   </si>
   <si>
     <t>TOT</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>L2</t>
   </si>
 </sst>
 </file>
@@ -154,7 +166,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +185,35 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,21 +261,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -516,58 +556,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="11" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>3</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <f>SUM(D2:D15)</f>
-        <v>4.7000000000000011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>7.240000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -575,13 +615,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -589,13 +629,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -603,13 +643,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="6">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -617,13 +657,13 @@
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -631,125 +671,238 @@
         <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="6">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="C21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
